--- a/publication/results/fit_plane/idpt_cm0.5_mean_rmse-z_by_r.xlsx
+++ b/publication/results/fit_plane/idpt_cm0.5_mean_rmse-z_by_r.xlsx
@@ -483,22 +483,22 @@
         <v>269.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9565063175685308</v>
+        <v>0.9565063175685314</v>
       </c>
       <c r="D2" t="n">
         <v>2.500235386426055</v>
       </c>
       <c r="E2" t="n">
-        <v>2.765466150333071</v>
+        <v>2.765466326745198</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0001524578611739897</v>
+        <v>-0.0001520746786551685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2596912919669042</v>
+        <v>0.2596912779694829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3896328262025272</v>
+        <v>0.3896328264536887</v>
       </c>
       <c r="I2" t="n">
         <v>5098</v>
